--- a/D조-비짓부산-프로젝트 산출물목록표.xlsx
+++ b/D조-비짓부산-프로젝트 산출물목록표.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\다른 컴퓨터\내 컴퓨터\김유경\포트폴리오\웹퍼블리싱\5-모바일(all)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\다른 컴퓨터\내 컴퓨터\김유경\포트폴리오\웹퍼블리싱\5-visitBusan(mobile)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6860041A-F68E-481A-8B84-23F78505FAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5580" windowWidth="38640" windowHeight="21120" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-5580" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="2" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="136">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -572,11 +573,23 @@
     <t>shareReview.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>서치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16">
     <font>
       <sz val="11"/>
@@ -885,7 +898,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1018,46 +1031,25 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1078,15 +1070,45 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1111,25 +1133,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1446,35 +1450,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="35" customWidth="1"/>
-    <col min="2" max="2" width="20.75" style="36" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="36" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="36" customWidth="1"/>
-    <col min="5" max="6" width="18.75" style="36" customWidth="1"/>
-    <col min="7" max="7" width="24.25" style="35" customWidth="1"/>
+    <col min="1" max="1" width="4.19921875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="20.69921875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="26.3984375" style="36" customWidth="1"/>
+    <col min="4" max="4" width="15.69921875" style="36" customWidth="1"/>
+    <col min="5" max="6" width="18.69921875" style="36" customWidth="1"/>
+    <col min="7" max="7" width="24.19921875" style="35" customWidth="1"/>
     <col min="8" max="8" width="60" style="36" customWidth="1"/>
     <col min="9" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="48" customHeight="1">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="57"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
       <c r="I1" s="37"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
@@ -1482,15 +1486,15 @@
       <c r="M1" s="38"/>
       <c r="N1" s="38"/>
     </row>
-    <row r="2" spans="2:14" ht="25.9" customHeight="1">
-      <c r="B2" s="53" t="s">
+    <row r="2" spans="2:14" ht="25.95" customHeight="1">
+      <c r="B2" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="25" t="s">
         <v>60</v>
       </c>
@@ -1500,7 +1504,7 @@
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
     </row>
-    <row r="3" spans="2:14" ht="25.9" customHeight="1">
+    <row r="3" spans="2:14" ht="25.95" customHeight="1">
       <c r="B3" s="26" t="s">
         <v>14</v>
       </c>
@@ -1528,7 +1532,7 @@
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
     </row>
-    <row r="4" spans="2:14" ht="25.9" customHeight="1">
+    <row r="4" spans="2:14" ht="25.95" customHeight="1">
       <c r="B4" s="28" t="s">
         <v>79</v>
       </c>
@@ -1552,14 +1556,14 @@
       <c r="M4" s="39"/>
       <c r="N4" s="39"/>
     </row>
-    <row r="5" spans="2:14" ht="64.900000000000006" customHeight="1">
-      <c r="B5" s="61" t="s">
+    <row r="5" spans="2:14" ht="64.95" customHeight="1">
+      <c r="B5" s="54" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="48" t="s">
         <v>78</v>
       </c>
       <c r="E5" s="29" t="s">
@@ -1578,19 +1582,19 @@
       <c r="M5" s="39"/>
       <c r="N5" s="39"/>
     </row>
-    <row r="6" spans="2:14" ht="25.9" customHeight="1">
-      <c r="B6" s="62"/>
+    <row r="6" spans="2:14" ht="25.95" customHeight="1">
+      <c r="B6" s="55"/>
       <c r="C6" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="51"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="29" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="51" t="s">
         <v>84</v>
       </c>
       <c r="H6" s="29"/>
@@ -1601,18 +1605,18 @@
       <c r="N6" s="39"/>
     </row>
     <row r="7" spans="2:14" ht="54.6" customHeight="1">
-      <c r="B7" s="62"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="52"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="29" t="s">
         <v>44</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="59"/>
+      <c r="G7" s="52"/>
       <c r="H7" s="29"/>
       <c r="I7" s="38"/>
       <c r="K7" s="39"/>
@@ -1621,7 +1625,7 @@
       <c r="N7" s="39"/>
     </row>
     <row r="8" spans="2:14" ht="54.6" customHeight="1">
-      <c r="B8" s="63"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="31" t="s">
         <v>85</v>
       </c>
@@ -1644,7 +1648,7 @@
       <c r="M8" s="39"/>
       <c r="N8" s="39"/>
     </row>
-    <row r="9" spans="2:14" s="36" customFormat="1" ht="25.15" customHeight="1">
+    <row r="9" spans="2:14" s="36" customFormat="1" ht="25.2" customHeight="1">
       <c r="B9" s="27" t="s">
         <v>66</v>
       </c>
@@ -1671,228 +1675,228 @@
       <c r="M9" s="40"/>
       <c r="N9" s="40"/>
     </row>
-    <row r="10" spans="2:14" ht="20.45" customHeight="1">
-      <c r="B10" s="60" t="s">
+    <row r="10" spans="2:14" ht="20.399999999999999" customHeight="1">
+      <c r="B10" s="53" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="48" t="s">
         <v>83</v>
       </c>
       <c r="H10" s="29"/>
     </row>
-    <row r="11" spans="2:14" ht="20.45" customHeight="1">
-      <c r="B11" s="60"/>
+    <row r="11" spans="2:14" ht="20.399999999999999" customHeight="1">
+      <c r="B11" s="53"/>
       <c r="C11" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="2:14" ht="20.45" customHeight="1">
-      <c r="B12" s="60"/>
-      <c r="C12" s="47" t="s">
+    <row r="12" spans="2:14" ht="20.399999999999999" customHeight="1">
+      <c r="B12" s="53"/>
+      <c r="C12" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="2:14" ht="20.45" customHeight="1">
-      <c r="B13" s="60"/>
-      <c r="C13" s="45" t="s">
+    <row r="13" spans="2:14" ht="20.399999999999999" customHeight="1">
+      <c r="B13" s="53"/>
+      <c r="C13" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="2:14" ht="20.45" customHeight="1">
-      <c r="B14" s="60"/>
+    <row r="14" spans="2:14" ht="20.399999999999999" customHeight="1">
+      <c r="B14" s="53"/>
       <c r="C14" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="2:14" ht="20.45" customHeight="1">
-      <c r="B15" s="60"/>
+    <row r="15" spans="2:14" ht="20.399999999999999" customHeight="1">
+      <c r="B15" s="53"/>
       <c r="C15" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="2:14" ht="20.45" customHeight="1">
-      <c r="B16" s="60"/>
+    <row r="16" spans="2:14" ht="20.399999999999999" customHeight="1">
+      <c r="B16" s="53"/>
       <c r="C16" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="2:8" ht="20.45" customHeight="1">
-      <c r="B17" s="60" t="s">
+    <row r="17" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B17" s="53" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="2:8" ht="20.45" customHeight="1">
-      <c r="B18" s="60"/>
+    <row r="18" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B18" s="53"/>
       <c r="C18" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
       <c r="H18" s="29"/>
     </row>
-    <row r="19" spans="2:8" ht="20.45" customHeight="1">
-      <c r="B19" s="60"/>
+    <row r="19" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B19" s="53"/>
       <c r="C19" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
       <c r="H19" s="29"/>
     </row>
-    <row r="20" spans="2:8" ht="20.45" customHeight="1">
-      <c r="B20" s="60" t="s">
+    <row r="20" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B20" s="53" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
       <c r="H20" s="29"/>
     </row>
-    <row r="21" spans="2:8" ht="20.45" customHeight="1">
-      <c r="B21" s="60"/>
+    <row r="21" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B21" s="53"/>
       <c r="C21" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
       <c r="H21" s="29"/>
     </row>
-    <row r="22" spans="2:8" ht="20.45" customHeight="1">
-      <c r="B22" s="60"/>
+    <row r="22" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B22" s="53"/>
       <c r="C22" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
       <c r="H22" s="29"/>
     </row>
-    <row r="23" spans="2:8" ht="20.45" customHeight="1">
-      <c r="B23" s="48" t="s">
+    <row r="23" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B23" s="57" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
       <c r="H23" s="29"/>
     </row>
-    <row r="24" spans="2:8" ht="20.45" customHeight="1">
-      <c r="B24" s="49"/>
+    <row r="24" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B24" s="58"/>
       <c r="C24" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
       <c r="H24" s="29"/>
     </row>
-    <row r="25" spans="2:8" ht="20.45" customHeight="1">
-      <c r="B25" s="49"/>
+    <row r="25" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B25" s="58"/>
       <c r="C25" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
       <c r="H25" s="29"/>
     </row>
-    <row r="26" spans="2:8" ht="20.45" customHeight="1">
-      <c r="B26" s="49"/>
+    <row r="26" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B26" s="58"/>
       <c r="C26" s="42" t="s">
         <v>98</v>
       </c>
       <c r="D26" s="29"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
       <c r="H26" s="29"/>
     </row>
-    <row r="27" spans="2:8" ht="20.45" customHeight="1">
-      <c r="B27" s="49"/>
+    <row r="27" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B27" s="58"/>
       <c r="C27" s="42" t="s">
         <v>99</v>
       </c>
       <c r="D27" s="29"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
       <c r="H27" s="29"/>
     </row>
-    <row r="28" spans="2:8" ht="20.45" customHeight="1">
-      <c r="B28" s="60" t="s">
+    <row r="28" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B28" s="53" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="34" t="s">
@@ -1901,65 +1905,65 @@
       <c r="D28" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
       <c r="H28" s="29"/>
     </row>
-    <row r="29" spans="2:8" ht="20.45" customHeight="1">
-      <c r="B29" s="60"/>
+    <row r="29" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B29" s="53"/>
       <c r="C29" s="34" t="s">
         <v>93</v>
       </c>
       <c r="D29" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
       <c r="H29" s="29"/>
     </row>
-    <row r="30" spans="2:8" ht="20.45" customHeight="1">
-      <c r="B30" s="60"/>
+    <row r="30" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B30" s="53"/>
       <c r="C30" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
       <c r="H30" s="29"/>
     </row>
-    <row r="31" spans="2:8" ht="20.45" customHeight="1">
-      <c r="B31" s="60"/>
+    <row r="31" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B31" s="53"/>
       <c r="C31" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
       <c r="H31" s="29"/>
     </row>
-    <row r="32" spans="2:8" ht="20.45" customHeight="1">
-      <c r="B32" s="48" t="s">
+    <row r="32" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B32" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="E32" s="44"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="29"/>
     </row>
-    <row r="33" spans="2:8" ht="20.45" customHeight="1">
-      <c r="B33" s="49"/>
+    <row r="33" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B33" s="58"/>
       <c r="C33" s="34" t="s">
         <v>57</v>
       </c>
@@ -1967,12 +1971,12 @@
         <v>64</v>
       </c>
       <c r="E33" s="29"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
       <c r="H33" s="29"/>
     </row>
-    <row r="34" spans="2:8" ht="20.45" customHeight="1">
-      <c r="B34" s="49"/>
+    <row r="34" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B34" s="58"/>
       <c r="C34" s="34" t="s">
         <v>107</v>
       </c>
@@ -1980,12 +1984,12 @@
         <v>104</v>
       </c>
       <c r="E34" s="29"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
       <c r="H34" s="29"/>
     </row>
-    <row r="35" spans="2:8" ht="20.45" customHeight="1">
-      <c r="B35" s="49"/>
+    <row r="35" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B35" s="58"/>
       <c r="C35" s="34" t="s">
         <v>101</v>
       </c>
@@ -1993,12 +1997,12 @@
         <v>100</v>
       </c>
       <c r="E35" s="29"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
       <c r="H35" s="29"/>
     </row>
-    <row r="36" spans="2:8" ht="20.45" customHeight="1">
-      <c r="B36" s="54"/>
+    <row r="36" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B36" s="60"/>
       <c r="C36" s="34" t="s">
         <v>82</v>
       </c>
@@ -2006,11 +2010,11 @@
         <v>105</v>
       </c>
       <c r="E36" s="29"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
       <c r="H36" s="29"/>
     </row>
-    <row r="37" spans="2:8" ht="20.45" customHeight="1">
+    <row r="37" spans="2:8" ht="20.399999999999999" customHeight="1">
       <c r="B37" s="41" t="s">
         <v>95</v>
       </c>
@@ -2033,6 +2037,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D30:D31"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="G6:G7"/>
@@ -2049,123 +2056,120 @@
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="G10:G36"/>
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D30:D31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:P87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.09765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="9" width="16.625" style="10" customWidth="1"/>
+    <col min="8" max="9" width="16.59765625" style="10" customWidth="1"/>
     <col min="10" max="10" width="18.5" style="1" customWidth="1"/>
-    <col min="11" max="12" width="14.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="57.125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="14.59765625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="57.09765625" style="1" customWidth="1"/>
     <col min="14" max="14" width="15" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="48" customHeight="1">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
       <c r="O1" s="24"/>
       <c r="P1" s="24"/>
     </row>
-    <row r="2" spans="2:16" ht="23.45" customHeight="1">
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="72" t="s">
+    <row r="2" spans="2:16" ht="23.4" customHeight="1">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
     </row>
     <row r="3" spans="2:16" ht="20.25" customHeight="1">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="H3" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="67" t="s">
+      <c r="I3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
     </row>
     <row r="4" spans="2:16" ht="20.25" customHeight="1">
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
       <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2186,7 +2190,7 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="61" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="3"/>
@@ -2211,7 +2215,7 @@
       <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="66"/>
+      <c r="C6" s="61"/>
       <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
@@ -2230,8 +2234,8 @@
       <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="76" t="s">
+      <c r="C7" s="61"/>
+      <c r="D7" s="78" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="16"/>
@@ -2255,8 +2259,8 @@
       <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="76"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="78"/>
       <c r="E8" s="16" t="s">
         <v>23</v>
       </c>
@@ -2274,8 +2278,8 @@
       <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="76"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="78"/>
       <c r="E9" s="16" t="s">
         <v>10</v>
       </c>
@@ -2293,8 +2297,8 @@
       <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="76"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="78"/>
       <c r="E10" s="16" t="s">
         <v>24</v>
       </c>
@@ -2312,10 +2316,10 @@
       <c r="B11" s="3">
         <v>7</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="72" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="6"/>
@@ -2335,8 +2339,8 @@
       <c r="B12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="70"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="73"/>
       <c r="E12" s="6" t="s">
         <v>25</v>
       </c>
@@ -2354,8 +2358,8 @@
       <c r="B13" s="3">
         <v>9</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="70"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="6" t="s">
         <v>26</v>
       </c>
@@ -2373,8 +2377,8 @@
       <c r="B14" s="3">
         <v>10</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="70"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="6" t="s">
         <v>27</v>
       </c>
@@ -2392,8 +2396,8 @@
       <c r="B15" s="3">
         <v>11</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="71"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="74"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -2409,8 +2413,8 @@
       <c r="B16" s="3">
         <v>12</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="68" t="s">
+      <c r="C16" s="61"/>
+      <c r="D16" s="71" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="7"/>
@@ -2434,8 +2438,8 @@
       <c r="B17" s="3">
         <v>13</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="68"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="71"/>
       <c r="E17" s="7" t="s">
         <v>28</v>
       </c>
@@ -2457,8 +2461,8 @@
       <c r="B18" s="3">
         <v>14</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="68"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="71"/>
       <c r="E18" s="7" t="s">
         <v>29</v>
       </c>
@@ -2480,8 +2484,8 @@
       <c r="B19" s="3">
         <v>15</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="68"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="71"/>
       <c r="E19" s="7" t="s">
         <v>30</v>
       </c>
@@ -2503,8 +2507,8 @@
       <c r="B20" s="3">
         <v>16</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="68"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="71"/>
       <c r="E20" s="7" t="s">
         <v>31</v>
       </c>
@@ -2526,8 +2530,8 @@
       <c r="B21" s="3">
         <v>17</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="68"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="71"/>
       <c r="E21" s="7" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2553,8 @@
       <c r="B22" s="3">
         <v>18</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="68"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="71"/>
       <c r="E22" s="7" t="s">
         <v>33</v>
       </c>
@@ -2572,10 +2576,10 @@
       <c r="B23" s="3">
         <v>20</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="79" t="s">
+      <c r="D23" s="64" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="15"/>
@@ -2599,8 +2603,8 @@
       <c r="B24" s="3">
         <v>21</v>
       </c>
-      <c r="C24" s="81"/>
-      <c r="D24" s="79"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="64"/>
       <c r="E24" s="15" t="s">
         <v>20</v>
       </c>
@@ -2626,8 +2630,8 @@
       <c r="B25" s="3">
         <v>22</v>
       </c>
-      <c r="C25" s="81"/>
-      <c r="D25" s="79" t="s">
+      <c r="C25" s="66"/>
+      <c r="D25" s="64" t="s">
         <v>49</v>
       </c>
       <c r="E25" s="15"/>
@@ -2653,8 +2657,8 @@
       <c r="B26" s="3">
         <v>23</v>
       </c>
-      <c r="C26" s="81"/>
-      <c r="D26" s="79"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="64"/>
       <c r="E26" s="15" t="s">
         <v>50</v>
       </c>
@@ -2674,8 +2678,8 @@
       <c r="B27" s="3">
         <v>24</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="79"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="15" t="s">
         <v>51</v>
       </c>
@@ -2695,8 +2699,8 @@
       <c r="B28" s="3">
         <v>26</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="79"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="64"/>
       <c r="E28" s="15" t="s">
         <v>52</v>
       </c>
@@ -2716,8 +2720,8 @@
       <c r="B29" s="3">
         <v>27</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="79" t="s">
+      <c r="C29" s="66"/>
+      <c r="D29" s="64" t="s">
         <v>53</v>
       </c>
       <c r="E29" s="15"/>
@@ -2741,8 +2745,8 @@
       <c r="B30" s="3">
         <v>28</v>
       </c>
-      <c r="C30" s="81"/>
-      <c r="D30" s="79"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="64"/>
       <c r="E30" s="15" t="s">
         <v>61</v>
       </c>
@@ -2762,8 +2766,8 @@
       <c r="B31" s="3">
         <v>29</v>
       </c>
-      <c r="C31" s="81"/>
-      <c r="D31" s="79"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="15" t="s">
         <v>86</v>
       </c>
@@ -2783,8 +2787,8 @@
       <c r="B32" s="3">
         <v>30</v>
       </c>
-      <c r="C32" s="81"/>
-      <c r="D32" s="79"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="15" t="s">
         <v>62</v>
       </c>
@@ -2804,8 +2808,8 @@
       <c r="B33" s="3">
         <v>31</v>
       </c>
-      <c r="C33" s="81"/>
-      <c r="D33" s="79" t="s">
+      <c r="C33" s="66"/>
+      <c r="D33" s="64" t="s">
         <v>54</v>
       </c>
       <c r="E33" s="15"/>
@@ -2829,8 +2833,8 @@
       <c r="B34" s="3">
         <v>32</v>
       </c>
-      <c r="C34" s="81"/>
-      <c r="D34" s="79"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="64"/>
       <c r="E34" s="15" t="s">
         <v>96</v>
       </c>
@@ -2850,8 +2854,8 @@
       <c r="B35" s="3">
         <v>33</v>
       </c>
-      <c r="C35" s="81"/>
-      <c r="D35" s="79"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="64"/>
       <c r="E35" s="15" t="s">
         <v>97</v>
       </c>
@@ -2871,8 +2875,8 @@
       <c r="B36" s="3">
         <v>34</v>
       </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="79"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="64"/>
       <c r="E36" s="15" t="s">
         <v>94</v>
       </c>
@@ -2892,8 +2896,8 @@
       <c r="B37" s="3">
         <v>35</v>
       </c>
-      <c r="C37" s="81"/>
-      <c r="D37" s="79" t="s">
+      <c r="C37" s="66"/>
+      <c r="D37" s="64" t="s">
         <v>55</v>
       </c>
       <c r="E37" s="15"/>
@@ -2917,8 +2921,8 @@
       <c r="B38" s="3">
         <v>36</v>
       </c>
-      <c r="C38" s="81"/>
-      <c r="D38" s="79"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="64"/>
       <c r="E38" s="15" t="s">
         <v>58</v>
       </c>
@@ -2938,8 +2942,8 @@
       <c r="B39" s="3">
         <v>37</v>
       </c>
-      <c r="C39" s="81"/>
-      <c r="D39" s="79"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="64"/>
       <c r="E39" s="15" t="s">
         <v>93</v>
       </c>
@@ -2957,29 +2961,29 @@
     </row>
     <row r="40" spans="2:14" ht="19.5" customHeight="1">
       <c r="B40" s="3"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="46" t="s">
+      <c r="C40" s="66"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
-      <c r="J40" s="46" t="s">
+      <c r="J40" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
     </row>
     <row r="41" spans="2:14" ht="19.5" customHeight="1">
       <c r="B41" s="3">
         <v>38</v>
       </c>
-      <c r="C41" s="81"/>
-      <c r="D41" s="79"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="64"/>
       <c r="E41" s="15" t="s">
         <v>92</v>
       </c>
@@ -2999,8 +3003,8 @@
       <c r="B42" s="3">
         <v>39</v>
       </c>
-      <c r="C42" s="81"/>
-      <c r="D42" s="79" t="s">
+      <c r="C42" s="66"/>
+      <c r="D42" s="64" t="s">
         <v>56</v>
       </c>
       <c r="E42" s="15"/>
@@ -3022,31 +3026,29 @@
     </row>
     <row r="43" spans="2:14" ht="19.5" customHeight="1">
       <c r="B43" s="3"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="46" t="s">
+      <c r="C43" s="66"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
-      <c r="J43" s="46" t="s">
+      <c r="J43" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="K43" s="46" t="s">
+      <c r="K43" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="46"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
     </row>
     <row r="44" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B44" s="3">
-        <v>40</v>
-      </c>
-      <c r="C44" s="81"/>
-      <c r="D44" s="79"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="64"/>
       <c r="E44" s="15" t="s">
         <v>57</v>
       </c>
@@ -3064,44 +3066,44 @@
       <c r="M44" s="15"/>
       <c r="N44" s="15"/>
     </row>
-    <row r="45" spans="2:14" ht="19.5" customHeight="1">
+    <row r="45" spans="2:14" ht="19.2" customHeight="1">
       <c r="B45" s="3">
-        <v>41</v>
-      </c>
-      <c r="C45" s="81"/>
-      <c r="D45" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="15"/>
+        <v>40</v>
+      </c>
+      <c r="C45" s="66"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="F45" s="15"/>
-      <c r="G45" s="15">
-        <v>1</v>
-      </c>
+      <c r="G45" s="15"/>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
+      <c r="J45" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
       <c r="N45" s="15"/>
     </row>
     <row r="46" spans="2:14" ht="19.5" customHeight="1">
       <c r="B46" s="3">
-        <v>42</v>
-      </c>
-      <c r="C46" s="75"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="15" t="s">
-        <v>36</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C46" s="66"/>
+      <c r="D46" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="15"/>
       <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="I46" s="21" t="s">
-        <v>40</v>
-      </c>
+      <c r="G46" s="15">
+        <v>1</v>
+      </c>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
       <c r="J46" s="15"/>
       <c r="K46" s="15"/>
       <c r="L46" s="15"/>
@@ -3109,65 +3111,87 @@
       <c r="N46" s="15"/>
     </row>
     <row r="47" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B47" s="77">
+      <c r="B47" s="3">
+        <v>42</v>
+      </c>
+      <c r="C47" s="67"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+    </row>
+    <row r="48" spans="2:14" ht="19.5" customHeight="1">
+      <c r="B48" s="62">
         <v>43</v>
       </c>
-      <c r="C47" s="66" t="s">
+      <c r="C48" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="80" t="s">
+      <c r="D48" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4">
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4">
         <v>1</v>
       </c>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-    </row>
-    <row r="48" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B48" s="78"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" ht="19.5" customHeight="1"/>
-    <row r="50" ht="19.5" customHeight="1"/>
-    <row r="51" ht="19.5" customHeight="1"/>
-    <row r="52" ht="19.5" customHeight="1"/>
-    <row r="53" ht="19.5" customHeight="1"/>
-    <row r="54" ht="19.5" customHeight="1"/>
-    <row r="55" ht="19.5" customHeight="1"/>
-    <row r="56" ht="19.5" customHeight="1"/>
-    <row r="57" ht="19.5" customHeight="1"/>
-    <row r="58" ht="19.5" customHeight="1"/>
-    <row r="59" ht="19.5" customHeight="1"/>
-    <row r="60" ht="19.5" customHeight="1"/>
-    <row r="61" ht="19.5" customHeight="1"/>
-    <row r="62" ht="19.5" customHeight="1"/>
-    <row r="63" ht="19.5" customHeight="1"/>
-    <row r="64" ht="19.5" customHeight="1"/>
+    <row r="49" spans="2:14" ht="19.5" customHeight="1">
+      <c r="B49" s="63"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="2:14" ht="19.5" customHeight="1"/>
+    <row r="51" spans="2:14" ht="19.5" customHeight="1"/>
+    <row r="52" spans="2:14" ht="19.5" customHeight="1"/>
+    <row r="53" spans="2:14" ht="19.5" customHeight="1"/>
+    <row r="54" spans="2:14" ht="19.5" customHeight="1"/>
+    <row r="55" spans="2:14" ht="19.5" customHeight="1"/>
+    <row r="56" spans="2:14" ht="19.5" customHeight="1"/>
+    <row r="57" spans="2:14" ht="19.5" customHeight="1"/>
+    <row r="58" spans="2:14" ht="19.5" customHeight="1"/>
+    <row r="59" spans="2:14" ht="19.5" customHeight="1"/>
+    <row r="60" spans="2:14" ht="19.5" customHeight="1"/>
+    <row r="61" spans="2:14" ht="19.5" customHeight="1"/>
+    <row r="62" spans="2:14" ht="19.5" customHeight="1"/>
+    <row r="63" spans="2:14" ht="19.5" customHeight="1"/>
+    <row r="64" spans="2:14" ht="19.5" customHeight="1"/>
     <row r="65" ht="19.5" customHeight="1"/>
     <row r="66" ht="19.5" customHeight="1"/>
     <row r="67" ht="19.5" customHeight="1"/>
@@ -3190,20 +3214,9 @@
     <row r="84" ht="19.5" customHeight="1"/>
     <row r="85" ht="19.5" customHeight="1"/>
     <row r="86" ht="19.5" customHeight="1"/>
+    <row r="87" ht="19.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C23:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D37:D41"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="J3:N3"/>
     <mergeCell ref="C11:C22"/>
@@ -3220,6 +3233,18 @@
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C23:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D37:D41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/D조-비짓부산-프로젝트 산출물목록표.xlsx
+++ b/D조-비짓부산-프로젝트 산출물목록표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\다른 컴퓨터\내 컴퓨터\김유경\포트폴리오\웹퍼블리싱\5-visitBusan(mobile)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\다른 컴퓨터\내 컴퓨터\김유경\포트폴리오\웹퍼블리싱\home\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6860041A-F68E-481A-8B84-23F78505FAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE51D92-7523-44B4-A132-4F43FF37C307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5580" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5580" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="133">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -374,10 +374,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VS code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>포토샵, 일러스트, 피그마 링크 공유&amp;회의</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,14 +402,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>여행공유(사진)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행공유(리뷰)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공연&amp;행사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -434,14 +422,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(-)뉴스레터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-)가이드북지도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이하얀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -466,10 +446,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메인1 + 서브13 = 14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메뉴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -570,10 +546,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shareReview.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>서치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -583,6 +555,85 @@
   </si>
   <si>
     <t>search.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행공유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>여행공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>메인1 + 서브1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> = 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">Git, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>VS code</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,7 +641,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -714,8 +765,22 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -773,12 +838,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,7 +957,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1025,15 +1084,30 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1041,15 +1115,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1070,21 +1135,48 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1098,42 +1190,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1451,17 +1507,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N43"/>
+  <dimension ref="B1:N40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4.19921875" style="35" customWidth="1"/>
     <col min="2" max="2" width="20.69921875" style="36" customWidth="1"/>
-    <col min="3" max="3" width="26.3984375" style="36" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="36" customWidth="1"/>
     <col min="4" max="4" width="15.69921875" style="36" customWidth="1"/>
     <col min="5" max="6" width="18.69921875" style="36" customWidth="1"/>
     <col min="7" max="7" width="24.19921875" style="35" customWidth="1"/>
@@ -1470,15 +1526,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="48" customHeight="1">
-      <c r="B1" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52"/>
       <c r="I1" s="37"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
@@ -1537,7 +1593,7 @@
         <v>79</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>78</v>
@@ -1557,13 +1613,13 @@
       <c r="N4" s="39"/>
     </row>
     <row r="5" spans="2:14" ht="64.95" customHeight="1">
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="56" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="47" t="s">
         <v>78</v>
       </c>
       <c r="E5" s="29" t="s">
@@ -1583,19 +1639,19 @@
       <c r="N5" s="39"/>
     </row>
     <row r="6" spans="2:14" ht="25.95" customHeight="1">
-      <c r="B6" s="55"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="49"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="29" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="51" t="s">
-        <v>84</v>
+      <c r="G6" s="53" t="s">
+        <v>83</v>
       </c>
       <c r="H6" s="29"/>
       <c r="I6" s="38"/>
@@ -1605,18 +1661,18 @@
       <c r="N6" s="39"/>
     </row>
     <row r="7" spans="2:14" ht="54.6" customHeight="1">
-      <c r="B7" s="55"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="50"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="29" t="s">
         <v>44</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="52"/>
+      <c r="G7" s="54"/>
       <c r="H7" s="29"/>
       <c r="I7" s="38"/>
       <c r="K7" s="39"/>
@@ -1625,9 +1681,9 @@
       <c r="N7" s="39"/>
     </row>
     <row r="8" spans="2:14" ht="54.6" customHeight="1">
-      <c r="B8" s="56"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>78</v>
@@ -1639,7 +1695,7 @@
         <v>41</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="38"/>
@@ -1653,10 +1709,10 @@
         <v>66</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>71</v>
@@ -1676,299 +1732,305 @@
       <c r="N9" s="40"/>
     </row>
     <row r="10" spans="2:14" ht="20.399999999999999" customHeight="1">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="55" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="48" t="s">
-        <v>83</v>
+      <c r="G10" s="47" t="s">
+        <v>132</v>
       </c>
       <c r="H10" s="29"/>
     </row>
     <row r="11" spans="2:14" ht="20.399999999999999" customHeight="1">
-      <c r="B11" s="53"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
       <c r="H11" s="29"/>
     </row>
     <row r="12" spans="2:14" ht="20.399999999999999" customHeight="1">
-      <c r="B12" s="53"/>
-      <c r="C12" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
       <c r="H12" s="29"/>
     </row>
     <row r="13" spans="2:14" ht="20.399999999999999" customHeight="1">
-      <c r="B13" s="53"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
+        <v>111</v>
+      </c>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="29"/>
     </row>
     <row r="14" spans="2:14" ht="20.399999999999999" customHeight="1">
-      <c r="B14" s="53"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="29"/>
     </row>
     <row r="15" spans="2:14" ht="20.399999999999999" customHeight="1">
-      <c r="B15" s="53"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="29"/>
     </row>
     <row r="16" spans="2:14" ht="20.399999999999999" customHeight="1">
-      <c r="B16" s="53"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="29"/>
     </row>
     <row r="17" spans="2:8" ht="20.399999999999999" customHeight="1">
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="55" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
+      <c r="D17" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="29"/>
     </row>
     <row r="18" spans="2:8" ht="20.399999999999999" customHeight="1">
-      <c r="B18" s="53"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="29"/>
     </row>
     <row r="19" spans="2:8" ht="20.399999999999999" customHeight="1">
-      <c r="B19" s="53"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="29"/>
     </row>
     <row r="20" spans="2:8" ht="20.399999999999999" customHeight="1">
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="55" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B21" s="55"/>
+      <c r="C21" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="29"/>
+    </row>
+    <row r="22" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B22" s="55"/>
+      <c r="C22" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="49"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B23" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="29"/>
+    </row>
+    <row r="24" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B24" s="45"/>
+      <c r="C24" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="29"/>
+    </row>
+    <row r="25" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B25" s="45"/>
+      <c r="C25" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="49"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="29"/>
+    </row>
+    <row r="26" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B26" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="29"/>
+    </row>
+    <row r="27" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B27" s="55"/>
+      <c r="C27" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="29"/>
+    </row>
+    <row r="28" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B28" s="55"/>
+      <c r="C28" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="29"/>
+    </row>
+    <row r="29" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B29" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="29"/>
+    </row>
+    <row r="30" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B30" s="45"/>
+      <c r="C30" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="29"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="29"/>
+    </row>
+    <row r="31" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B31" s="45"/>
+      <c r="C31" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="29"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="29"/>
+    </row>
+    <row r="32" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B32" s="45"/>
+      <c r="C32" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="29"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="29"/>
+    </row>
+    <row r="33" spans="2:8" ht="20.399999999999999" customHeight="1">
+      <c r="B33" s="46"/>
+      <c r="C33" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="29" t="s">
         <v>100</v>
-      </c>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="29"/>
-    </row>
-    <row r="21" spans="2:8" ht="20.399999999999999" customHeight="1">
-      <c r="B21" s="53"/>
-      <c r="C21" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="29"/>
-    </row>
-    <row r="22" spans="2:8" ht="20.399999999999999" customHeight="1">
-      <c r="B22" s="53"/>
-      <c r="C22" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="29"/>
-    </row>
-    <row r="23" spans="2:8" ht="20.399999999999999" customHeight="1">
-      <c r="B23" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="29"/>
-    </row>
-    <row r="24" spans="2:8" ht="20.399999999999999" customHeight="1">
-      <c r="B24" s="58"/>
-      <c r="C24" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="29"/>
-    </row>
-    <row r="25" spans="2:8" ht="20.399999999999999" customHeight="1">
-      <c r="B25" s="58"/>
-      <c r="C25" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="29"/>
-    </row>
-    <row r="26" spans="2:8" ht="20.399999999999999" customHeight="1">
-      <c r="B26" s="58"/>
-      <c r="C26" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="29"/>
-    </row>
-    <row r="27" spans="2:8" ht="20.399999999999999" customHeight="1">
-      <c r="B27" s="58"/>
-      <c r="C27" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="29"/>
-    </row>
-    <row r="28" spans="2:8" ht="20.399999999999999" customHeight="1">
-      <c r="B28" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="29"/>
-    </row>
-    <row r="29" spans="2:8" ht="20.399999999999999" customHeight="1">
-      <c r="B29" s="53"/>
-      <c r="C29" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="29"/>
-    </row>
-    <row r="30" spans="2:8" ht="20.399999999999999" customHeight="1">
-      <c r="B30" s="53"/>
-      <c r="C30" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="29"/>
-    </row>
-    <row r="31" spans="2:8" ht="20.399999999999999" customHeight="1">
-      <c r="B31" s="53"/>
-      <c r="C31" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="29"/>
-    </row>
-    <row r="32" spans="2:8" ht="20.399999999999999" customHeight="1">
-      <c r="B32" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" s="32"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="29"/>
-    </row>
-    <row r="33" spans="2:8" ht="20.399999999999999" customHeight="1">
-      <c r="B33" s="58"/>
-      <c r="C33" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>64</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="49"/>
@@ -1976,70 +2038,33 @@
       <c r="H33" s="29"/>
     </row>
     <row r="34" spans="2:8" ht="20.399999999999999" customHeight="1">
-      <c r="B34" s="58"/>
-      <c r="C34" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="29"/>
-    </row>
-    <row r="35" spans="2:8" ht="20.399999999999999" customHeight="1">
-      <c r="B35" s="58"/>
-      <c r="C35" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="29"/>
-    </row>
-    <row r="36" spans="2:8" ht="20.399999999999999" customHeight="1">
-      <c r="B36" s="60"/>
-      <c r="C36" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="29"/>
-    </row>
-    <row r="37" spans="2:8" ht="20.399999999999999" customHeight="1">
-      <c r="B37" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B39" s="43"/>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="F42" s="36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="C43" s="36" t="s">
-        <v>109</v>
+      <c r="B34" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="17.25" customHeight="1">
+      <c r="B36" s="42"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="F39" s="36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="C40" s="36" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B32:B36"/>
+  <mergeCells count="18">
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="G10:G33"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B29:B33"/>
     <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D30:D31"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="G6:G7"/>
@@ -2049,13 +2074,10 @@
     <mergeCell ref="D10:D16"/>
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E10:E31"/>
-    <mergeCell ref="F10:F36"/>
+    <mergeCell ref="E10:E28"/>
+    <mergeCell ref="F10:F33"/>
     <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="G10:G36"/>
-    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B26:B28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2067,10 +2089,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:P87"/>
+  <dimension ref="B1:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView topLeftCell="C19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -2091,85 +2113,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="48" customHeight="1">
-      <c r="B1" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
+      <c r="B1" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
       <c r="O1" s="24"/>
       <c r="P1" s="24"/>
     </row>
     <row r="2" spans="2:16" ht="23.4" customHeight="1">
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="75" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
     </row>
     <row r="3" spans="2:16" ht="20.25" customHeight="1">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="70" t="s">
+      <c r="I3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="J3" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
     </row>
     <row r="4" spans="2:16" ht="20.25" customHeight="1">
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2190,7 +2212,7 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="62" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="3"/>
@@ -2215,7 +2237,7 @@
       <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
@@ -2234,8 +2256,8 @@
       <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="78" t="s">
+      <c r="C7" s="62"/>
+      <c r="D7" s="72" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="16"/>
@@ -2259,8 +2281,8 @@
       <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="78"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="72"/>
       <c r="E8" s="16" t="s">
         <v>23</v>
       </c>
@@ -2278,8 +2300,8 @@
       <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="78"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="72"/>
       <c r="E9" s="16" t="s">
         <v>10</v>
       </c>
@@ -2297,8 +2319,8 @@
       <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="78"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="72"/>
       <c r="E10" s="16" t="s">
         <v>24</v>
       </c>
@@ -2316,10 +2338,10 @@
       <c r="B11" s="3">
         <v>7</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="65" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="6"/>
@@ -2339,8 +2361,8 @@
       <c r="B12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="73"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="66"/>
       <c r="E12" s="6" t="s">
         <v>25</v>
       </c>
@@ -2358,8 +2380,8 @@
       <c r="B13" s="3">
         <v>9</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="73"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="66"/>
       <c r="E13" s="6" t="s">
         <v>26</v>
       </c>
@@ -2377,8 +2399,8 @@
       <c r="B14" s="3">
         <v>10</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="73"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="66"/>
       <c r="E14" s="6" t="s">
         <v>27</v>
       </c>
@@ -2396,8 +2418,8 @@
       <c r="B15" s="3">
         <v>11</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="74"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="67"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -2413,8 +2435,8 @@
       <c r="B16" s="3">
         <v>12</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="71" t="s">
+      <c r="C16" s="62"/>
+      <c r="D16" s="64" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="7"/>
@@ -2438,8 +2460,8 @@
       <c r="B17" s="3">
         <v>13</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="71"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="64"/>
       <c r="E17" s="7" t="s">
         <v>28</v>
       </c>
@@ -2461,8 +2483,8 @@
       <c r="B18" s="3">
         <v>14</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="71"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="64"/>
       <c r="E18" s="7" t="s">
         <v>29</v>
       </c>
@@ -2484,8 +2506,8 @@
       <c r="B19" s="3">
         <v>15</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="71"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="7" t="s">
         <v>30</v>
       </c>
@@ -2507,8 +2529,8 @@
       <c r="B20" s="3">
         <v>16</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="71"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="7" t="s">
         <v>31</v>
       </c>
@@ -2530,8 +2552,8 @@
       <c r="B21" s="3">
         <v>17</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="71"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="64"/>
       <c r="E21" s="7" t="s">
         <v>32</v>
       </c>
@@ -2553,8 +2575,8 @@
       <c r="B22" s="3">
         <v>18</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="71"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="7" t="s">
         <v>33</v>
       </c>
@@ -2576,10 +2598,10 @@
       <c r="B23" s="3">
         <v>20</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="75" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="15"/>
@@ -2603,8 +2625,8 @@
       <c r="B24" s="3">
         <v>21</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="64"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="75"/>
       <c r="E24" s="15" t="s">
         <v>20</v>
       </c>
@@ -2630,8 +2652,8 @@
       <c r="B25" s="3">
         <v>22</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="64" t="s">
+      <c r="C25" s="77"/>
+      <c r="D25" s="75" t="s">
         <v>49</v>
       </c>
       <c r="E25" s="15"/>
@@ -2646,7 +2668,7 @@
         <v>40</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
@@ -2657,8 +2679,8 @@
       <c r="B26" s="3">
         <v>23</v>
       </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="64"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="75"/>
       <c r="E26" s="15" t="s">
         <v>50</v>
       </c>
@@ -2667,7 +2689,7 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="15" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
@@ -2678,8 +2700,8 @@
       <c r="B27" s="3">
         <v>24</v>
       </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="64"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="75"/>
       <c r="E27" s="15" t="s">
         <v>51</v>
       </c>
@@ -2688,7 +2710,7 @@
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="15" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
@@ -2699,8 +2721,8 @@
       <c r="B28" s="3">
         <v>26</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="64"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="75"/>
       <c r="E28" s="15" t="s">
         <v>52</v>
       </c>
@@ -2709,7 +2731,7 @@
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="15" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
@@ -2720,8 +2742,8 @@
       <c r="B29" s="3">
         <v>27</v>
       </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="64" t="s">
+      <c r="C29" s="77"/>
+      <c r="D29" s="75" t="s">
         <v>53</v>
       </c>
       <c r="E29" s="15"/>
@@ -2745,8 +2767,8 @@
       <c r="B30" s="3">
         <v>28</v>
       </c>
-      <c r="C30" s="66"/>
-      <c r="D30" s="64"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="75"/>
       <c r="E30" s="15" t="s">
         <v>61</v>
       </c>
@@ -2755,7 +2777,7 @@
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="15" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
@@ -2766,17 +2788,17 @@
       <c r="B31" s="3">
         <v>29</v>
       </c>
-      <c r="C31" s="66"/>
-      <c r="D31" s="64"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="75"/>
       <c r="E31" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
@@ -2787,8 +2809,8 @@
       <c r="B32" s="3">
         <v>30</v>
       </c>
-      <c r="C32" s="66"/>
-      <c r="D32" s="64"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="75"/>
       <c r="E32" s="15" t="s">
         <v>62</v>
       </c>
@@ -2797,7 +2819,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="15" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
@@ -2808,8 +2830,8 @@
       <c r="B33" s="3">
         <v>31</v>
       </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="64" t="s">
+      <c r="C33" s="77"/>
+      <c r="D33" s="75" t="s">
         <v>54</v>
       </c>
       <c r="E33" s="15"/>
@@ -2833,17 +2855,17 @@
       <c r="B34" s="3">
         <v>32</v>
       </c>
-      <c r="C34" s="66"/>
-      <c r="D34" s="64"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="75"/>
       <c r="E34" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="15" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
@@ -2854,17 +2876,17 @@
       <c r="B35" s="3">
         <v>33</v>
       </c>
-      <c r="C35" s="66"/>
-      <c r="D35" s="64"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="75"/>
       <c r="E35" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="15" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
@@ -2875,17 +2897,17 @@
       <c r="B36" s="3">
         <v>34</v>
       </c>
-      <c r="C36" s="66"/>
-      <c r="D36" s="64"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="75"/>
       <c r="E36" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="15" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
@@ -2896,8 +2918,8 @@
       <c r="B37" s="3">
         <v>35</v>
       </c>
-      <c r="C37" s="66"/>
-      <c r="D37" s="64" t="s">
+      <c r="C37" s="77"/>
+      <c r="D37" s="75" t="s">
         <v>55</v>
       </c>
       <c r="E37" s="15"/>
@@ -2921,8 +2943,8 @@
       <c r="B38" s="3">
         <v>36</v>
       </c>
-      <c r="C38" s="66"/>
-      <c r="D38" s="64"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="75"/>
       <c r="E38" s="15" t="s">
         <v>58</v>
       </c>
@@ -2931,7 +2953,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
@@ -2942,17 +2964,17 @@
       <c r="B39" s="3">
         <v>37</v>
       </c>
-      <c r="C39" s="66"/>
-      <c r="D39" s="64"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="75"/>
       <c r="E39" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
@@ -2961,17 +2983,17 @@
     </row>
     <row r="40" spans="2:14" ht="19.5" customHeight="1">
       <c r="B40" s="3"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="64"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="75"/>
       <c r="E40" s="15" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
       <c r="J40" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
@@ -2980,130 +3002,132 @@
     </row>
     <row r="41" spans="2:14" ht="19.5" customHeight="1">
       <c r="B41" s="3">
-        <v>38</v>
-      </c>
-      <c r="C41" s="66"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="15" t="s">
-        <v>92</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C41" s="77"/>
+      <c r="D41" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="15"/>
       <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="15" t="s">
-        <v>132</v>
-      </c>
+      <c r="G41" s="15">
+        <v>1</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J41" s="15"/>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
       <c r="N41" s="15"/>
     </row>
     <row r="42" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B42" s="3">
-        <v>39</v>
-      </c>
-      <c r="C42" s="66"/>
-      <c r="D42" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42" s="15"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="15" t="s">
+        <v>106</v>
+      </c>
       <c r="F42" s="15"/>
-      <c r="G42" s="15">
-        <v>1</v>
-      </c>
-      <c r="H42" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="I42" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>108</v>
+      </c>
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
       <c r="N42" s="15"/>
     </row>
     <row r="43" spans="2:14" ht="19.5" customHeight="1">
       <c r="B43" s="3"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="64"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="75"/>
       <c r="E43" s="15" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
       <c r="J43" s="15" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K43" s="15" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
       <c r="N43" s="15"/>
     </row>
-    <row r="44" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B44" s="3"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="64"/>
+    <row r="44" spans="2:14" ht="19.2" customHeight="1">
+      <c r="B44" s="3">
+        <v>40</v>
+      </c>
+      <c r="C44" s="77"/>
+      <c r="D44" s="75"/>
       <c r="E44" s="15" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
       <c r="J44" s="15" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="L44" s="15"/>
       <c r="M44" s="15"/>
       <c r="N44" s="15"/>
     </row>
-    <row r="45" spans="2:14" ht="19.2" customHeight="1">
+    <row r="45" spans="2:14" ht="19.5" customHeight="1">
       <c r="B45" s="3">
-        <v>40</v>
-      </c>
-      <c r="C45" s="66"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="15" t="s">
-        <v>133</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C45" s="77"/>
+      <c r="D45" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="15"/>
       <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
+      <c r="G45" s="15">
+        <v>1</v>
+      </c>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
-      <c r="J45" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="K45" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
       <c r="N45" s="15"/>
     </row>
     <row r="46" spans="2:14" ht="19.5" customHeight="1">
       <c r="B46" s="3">
-        <v>41</v>
-      </c>
-      <c r="C46" s="66"/>
-      <c r="D46" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" s="15"/>
+        <v>42</v>
+      </c>
+      <c r="C46" s="71"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="15" t="s">
+        <v>36</v>
+      </c>
       <c r="F46" s="15"/>
-      <c r="G46" s="15">
-        <v>1</v>
-      </c>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="J46" s="15"/>
       <c r="K46" s="15"/>
       <c r="L46" s="15"/>
@@ -3111,87 +3135,65 @@
       <c r="N46" s="15"/>
     </row>
     <row r="47" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B47" s="3">
-        <v>42</v>
-      </c>
-      <c r="C47" s="67"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="I47" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
+      <c r="B47" s="73">
+        <v>43</v>
+      </c>
+      <c r="C47" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4">
+        <v>1</v>
+      </c>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
     </row>
     <row r="48" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B48" s="62">
-        <v>43</v>
-      </c>
-      <c r="C48" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="65" t="s">
+      <c r="B48" s="74"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="4">
-        <v>1</v>
-      </c>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B49" s="63"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-    </row>
-    <row r="50" spans="2:14" ht="19.5" customHeight="1"/>
-    <row r="51" spans="2:14" ht="19.5" customHeight="1"/>
-    <row r="52" spans="2:14" ht="19.5" customHeight="1"/>
-    <row r="53" spans="2:14" ht="19.5" customHeight="1"/>
-    <row r="54" spans="2:14" ht="19.5" customHeight="1"/>
-    <row r="55" spans="2:14" ht="19.5" customHeight="1"/>
-    <row r="56" spans="2:14" ht="19.5" customHeight="1"/>
-    <row r="57" spans="2:14" ht="19.5" customHeight="1"/>
-    <row r="58" spans="2:14" ht="19.5" customHeight="1"/>
-    <row r="59" spans="2:14" ht="19.5" customHeight="1"/>
-    <row r="60" spans="2:14" ht="19.5" customHeight="1"/>
-    <row r="61" spans="2:14" ht="19.5" customHeight="1"/>
-    <row r="62" spans="2:14" ht="19.5" customHeight="1"/>
-    <row r="63" spans="2:14" ht="19.5" customHeight="1"/>
-    <row r="64" spans="2:14" ht="19.5" customHeight="1"/>
+    <row r="49" ht="19.5" customHeight="1"/>
+    <row r="50" ht="19.5" customHeight="1"/>
+    <row r="51" ht="19.5" customHeight="1"/>
+    <row r="52" ht="19.5" customHeight="1"/>
+    <row r="53" ht="19.5" customHeight="1"/>
+    <row r="54" ht="19.5" customHeight="1"/>
+    <row r="55" ht="19.5" customHeight="1"/>
+    <row r="56" ht="19.5" customHeight="1"/>
+    <row r="57" ht="19.5" customHeight="1"/>
+    <row r="58" ht="19.5" customHeight="1"/>
+    <row r="59" ht="19.5" customHeight="1"/>
+    <row r="60" ht="19.5" customHeight="1"/>
+    <row r="61" ht="19.5" customHeight="1"/>
+    <row r="62" ht="19.5" customHeight="1"/>
+    <row r="63" ht="19.5" customHeight="1"/>
+    <row r="64" ht="19.5" customHeight="1"/>
     <row r="65" ht="19.5" customHeight="1"/>
     <row r="66" ht="19.5" customHeight="1"/>
     <row r="67" ht="19.5" customHeight="1"/>
@@ -3214,9 +3216,20 @@
     <row r="84" ht="19.5" customHeight="1"/>
     <row r="85" ht="19.5" customHeight="1"/>
     <row r="86" ht="19.5" customHeight="1"/>
-    <row r="87" ht="19.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C23:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D37:D40"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="J3:N3"/>
     <mergeCell ref="C11:C22"/>
@@ -3233,18 +3246,6 @@
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="D7:D10"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C23:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D37:D41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
